--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_LRW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_LRW\git\portfolioReference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[아이디], [비밀번호], [이름], [성별], [주소], [연락처] 등은 필수 입력사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카카오톡, 네이버로 회원가입시 [이름], [주소], [성별], [연락처], [이메일] 등의 정보 추가입력 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +431,10 @@
   </si>
   <si>
     <t>대화목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[아이디], [비밀번호], [이름], [성별], [연락처] 등은 필수 입력사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,6 +633,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,8 +660,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,45 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -925,8 +925,8 @@
   </sheetPr>
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -940,11 +940,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -996,19 +996,19 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="12">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
@@ -1017,27 +1017,27 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="12">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="6"/>
@@ -1047,12 +1047,12 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="6"/>
@@ -1062,12 +1062,12 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1079,14 +1079,14 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6"/>
@@ -1096,12 +1096,12 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="6"/>
@@ -1111,12 +1111,12 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="6"/>
@@ -1126,12 +1126,12 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:25" ht="24">
-      <c r="A11" s="19"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="14" t="s">
         <v>82</v>
       </c>
       <c r="E11" s="5"/>
@@ -1141,13 +1141,13 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>95</v>
+      <c r="D12" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>28</v>
@@ -1158,14 +1158,14 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="13" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="5"/>
@@ -1175,15 +1175,15 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>93</v>
+      <c r="D14" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
@@ -1192,16 +1192,16 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="36">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="5"/>
@@ -1211,12 +1211,12 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="36">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="5"/>
@@ -1226,15 +1226,15 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
@@ -1243,16 +1243,16 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="13" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="8"/>
@@ -1262,12 +1262,12 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="8"/>
@@ -1277,12 +1277,12 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8"/>
@@ -1292,12 +1292,12 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="8"/>
@@ -1307,10 +1307,10 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="28" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="8"/>
@@ -1320,11 +1320,11 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27" t="s">
-        <v>91</v>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="4"/>
@@ -1333,12 +1333,12 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1350,13 +1350,13 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>92</v>
+      <c r="D25" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="4"/>
@@ -1365,14 +1365,14 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="8"/>
@@ -1382,12 +1382,12 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="8"/>
@@ -1397,12 +1397,12 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="13" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="8"/>
@@ -1412,232 +1412,232 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A29" s="26"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="17" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="28" t="s">
         <v>78</v>
       </c>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="33"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="36">
-      <c r="A46" s="26"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>99</v>
+      <c r="D46" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A47" s="26"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="16" t="s">
         <v>70</v>
       </c>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>98</v>
-      </c>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>94</v>
+      <c r="D50" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="E50" s="12"/>
     </row>
@@ -1665,26 +1665,26 @@
     <row r="72" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="D33:D44"/>
+    <mergeCell ref="A18:A50"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A5:A14"/>
     <mergeCell ref="B33:B44"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B18:B25"/>
-    <mergeCell ref="D33:D44"/>
-    <mergeCell ref="A18:A50"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>기능 설명</t>
   </si>
@@ -435,6 +435,22 @@
   </si>
   <si>
     <t>[아이디], [비밀번호], [이름], [성별], [연락처] 등은 필수 입력사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디를 찾는기능(이름, 연락처 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 찾는기능(아이디, 연락처, 이메일을 이용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,23 +664,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,9 +680,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -687,6 +694,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,14 +712,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,10 +942,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -940,11 +959,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -996,19 +1015,19 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="12">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
@@ -1017,11 +1036,11 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="12">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1031,7 +1050,7 @@
       <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1048,7 +1067,7 @@
     </row>
     <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="32"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1082,7 @@
     </row>
     <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="32"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="11" t="s">
         <v>51</v>
       </c>
@@ -1080,7 +1099,7 @@
     </row>
     <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="32"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1097,7 +1116,7 @@
     </row>
     <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1131,7 @@
     </row>
     <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="32"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1127,7 +1146,7 @@
     </row>
     <row r="11" spans="1:25" ht="24">
       <c r="A11" s="32"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
@@ -1142,7 +1161,7 @@
     </row>
     <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="32"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
@@ -1192,10 +1211,10 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="36">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1211,8 +1230,8 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="36">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
@@ -1226,7 +1245,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="7" t="s">
         <v>99</v>
       </c>
@@ -1243,10 +1262,10 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1262,8 +1281,8 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
@@ -1277,8 +1296,8 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
@@ -1292,9 +1311,9 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -1307,9 +1326,9 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="14" t="s">
         <v>21</v>
       </c>
@@ -1320,9 +1339,9 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="13" t="s">
         <v>102</v>
       </c>
@@ -1333,8 +1352,8 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
@@ -1350,8 +1369,8 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
@@ -1365,8 +1384,8 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -1382,8 +1401,8 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1397,252 +1416,280 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="10" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.1" customHeight="1">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.1" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="21" t="s">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.1" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="12" t="s">
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D33" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="12" t="s">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="26" t="s">
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D35" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="12" t="s">
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="12" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="12" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A38" s="28"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="12" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A39" s="28"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="12" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A40" s="28"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="12" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A41" s="28"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="12" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A42" s="28"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="12" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A43" s="28"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="12" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A44" s="28"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="12" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A45" s="28"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="12" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A46" s="28"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="B45" s="26" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A47" s="28"/>
+      <c r="B47" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="36">
-      <c r="A46" s="27"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="12" t="s">
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="36">
+      <c r="A48" s="28"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="36" t="s">
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A49" s="28"/>
+      <c r="B49" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="12" t="s">
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A50" s="28"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="12" t="s">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A51" s="28"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D51" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="12" t="s">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A52" s="28"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1"/>
+      <c r="E52" s="12"/>
+    </row>
     <row r="53" spans="1:5" ht="14.1" customHeight="1"/>
     <row r="54" spans="1:5" ht="14.1" customHeight="1"/>
     <row r="55" spans="1:5" ht="14.1" customHeight="1"/>
@@ -1661,30 +1708,32 @@
     <row r="68" ht="14.1" customHeight="1"/>
     <row r="69" ht="14.1" customHeight="1"/>
     <row r="70" ht="14.1" customHeight="1"/>
-    <row r="71" ht="12.95" customHeight="1"/>
-    <row r="72" ht="12.95" customHeight="1"/>
+    <row r="71" ht="14.1" customHeight="1"/>
+    <row r="72" ht="14.1" customHeight="1"/>
+    <row r="73" ht="12.95" customHeight="1"/>
+    <row r="74" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="D33:D44"/>
-    <mergeCell ref="A18:A50"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="D35:D46"/>
+    <mergeCell ref="A18:A52"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A5:A14"/>
-    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B35:B46"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B26:B30"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -667,18 +667,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,15 +722,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -959,11 +959,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -1015,19 +1015,19 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="12">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
@@ -1036,21 +1036,21 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="12">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1066,8 +1066,8 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1081,8 +1081,8 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="11" t="s">
         <v>51</v>
       </c>
@@ -1098,8 +1098,8 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1115,8 +1115,8 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
@@ -1130,8 +1130,8 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1145,8 +1145,8 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:25" ht="24">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
@@ -1160,8 +1160,8 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="7" t="s">
         <v>81</v>
       </c>
@@ -1211,10 +1211,10 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="36">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1230,8 +1230,8 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="36">
-      <c r="A16" s="34"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7" t="s">
         <v>99</v>
       </c>
@@ -1262,10 +1262,10 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1281,8 +1281,8 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
@@ -1296,8 +1296,8 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
@@ -1311,9 +1311,9 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -1326,9 +1326,9 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="14" t="s">
         <v>21</v>
       </c>
@@ -1339,9 +1339,9 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="13" t="s">
         <v>102</v>
       </c>
@@ -1352,8 +1352,8 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
@@ -1369,8 +1369,8 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
@@ -1384,8 +1384,8 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -1401,8 +1401,8 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1416,8 +1416,8 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="18" t="s">
         <v>16</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="18" t="s">
         <v>103</v>
       </c>
@@ -1446,8 +1446,8 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="10" t="s">
         <v>104</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="12" t="s">
         <v>29</v>
       </c>
@@ -1474,8 +1474,8 @@
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -1487,8 +1487,8 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12" t="s">
         <v>86</v>
       </c>
@@ -1498,8 +1498,8 @@
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="12" t="s">
         <v>88</v>
       </c>
@@ -1509,120 +1509,120 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="28" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A45" s="28"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="27" t="s">
         <v>62</v>
       </c>
       <c r="C47" s="12" t="s">
@@ -1634,8 +1634,8 @@
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="36">
-      <c r="A48" s="28"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="12" t="s">
         <v>58</v>
       </c>
@@ -1645,8 +1645,8 @@
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A49" s="28"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -1658,8 +1658,8 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="12" t="s">
         <v>69</v>
       </c>
@@ -1669,8 +1669,8 @@
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A51" s="28"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="12" t="s">
         <v>96</v>
       </c>
@@ -1680,8 +1680,8 @@
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="12" t="s">
         <v>60</v>
       </c>
@@ -1714,6 +1714,16 @@
     <row r="74" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="D35:D46"/>
+    <mergeCell ref="A18:A52"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -1721,19 +1731,9 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="D35:D46"/>
-    <mergeCell ref="A18:A52"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A5:A14"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>기능 설명</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매자 가판대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문의사항 남기기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,6 +447,57 @@
   </si>
   <si>
     <t>비밀번호를 찾는기능(아이디, 연락처, 이메일을 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래후기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 목록들을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 사항목록들을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 가판대(구매자 입장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 판매중인 상품의 목록들을 보여줌. 클릭시 상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜한목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜한 상품의 목록들을 보여줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,102 +673,111 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,10 +998,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -953,20 +1009,21 @@
     <col min="1" max="1" width="14.42578125" style="3"/>
     <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="127.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="74.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.42578125" style="3"/>
+    <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="123" style="21" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:26" ht="14.25">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -986,14 +1043,15 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" ht="12">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1013,695 +1071,826 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" ht="12">
-      <c r="A3" s="22" t="s">
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="12">
+      <c r="A3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" ht="12">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="12">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="11" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="11" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="32" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="11" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="11" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" ht="24">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="11" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:26" s="21" customFormat="1" ht="24">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="11" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:26" s="21" customFormat="1" ht="12">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:26" s="21" customFormat="1" ht="12">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:26" s="21" customFormat="1" ht="12">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:26" s="21" customFormat="1" ht="12">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:26" s="21" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D16" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="7" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" s="21" customFormat="1" ht="12">
+      <c r="A17" s="26"/>
+      <c r="B17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="7" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" ht="36">
-      <c r="A15" s="32" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" s="21" customFormat="1" ht="36">
+      <c r="A19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" ht="36">
-      <c r="A16" s="37"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="8" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" s="21" customFormat="1" ht="36">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="7" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" s="21" customFormat="1" ht="12">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" s="21" customFormat="1" ht="12">
+      <c r="A22" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B22" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="12">
+      <c r="F22" s="5"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.1" customHeight="1">
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
-      <c r="C24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.1" customHeight="1">
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10" s="21" customFormat="1" ht="12">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.1" customHeight="1">
+      <c r="C25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" s="21" customFormat="1" ht="24">
       <c r="A26" s="31"/>
-      <c r="B26" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.1" customHeight="1">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:10" s="21" customFormat="1" ht="12">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.1" customHeight="1">
+      <c r="C27" s="31"/>
+      <c r="D27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="1:10" s="21" customFormat="1" ht="12">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
-      <c r="C28" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.1" customHeight="1">
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="1:10" s="21" customFormat="1" ht="12">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="1:10" s="21" customFormat="1" ht="12">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="12" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A35" s="31"/>
+      <c r="B35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="19" t="s">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" s="21" customFormat="1" ht="12">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="12" t="s">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A37" s="31"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D37" s="35"/>
+      <c r="E37" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="12" t="s">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="27" t="s">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A39" s="31"/>
+      <c r="B39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="12" t="s">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A40" s="31"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="12" t="s">
+      <c r="D40" s="36"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A41" s="31"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="12" t="s">
+      <c r="D41" s="36"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A42" s="31"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="12" t="s">
+      <c r="D42" s="36"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A43" s="31"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="12" t="s">
+      <c r="D43" s="36"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A44" s="31"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="12" t="s">
+      <c r="D44" s="36"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A45" s="31"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="12" t="s">
+      <c r="D45" s="36"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A46" s="31"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="12" t="s">
+      <c r="D46" s="36"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A47" s="31"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="12" t="s">
+      <c r="D47" s="36"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="12" t="s">
+      <c r="D48" s="36"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A49" s="31"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="12" t="s">
+      <c r="D49" s="36"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A50" s="31"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="27" t="s">
+      <c r="D50" s="37"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C51" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="36">
-      <c r="A48" s="31"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="12" t="s">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" s="21" customFormat="1" ht="36">
+      <c r="A52" s="31"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="26" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A53" s="31"/>
+      <c r="B53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A54" s="31"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="12" t="s">
+      <c r="D55" s="6"/>
+      <c r="E55" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="12" t="s">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A56" s="31"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="54" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="55" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="56" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="57" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="58" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="59" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="61" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="62" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="63" spans="1:5" ht="14.1" customHeight="1"/>
-    <row r="64" spans="1:5" ht="14.1" customHeight="1"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1"/>
+    <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
+    <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
+    <row r="60" spans="1:6" ht="14.1" customHeight="1"/>
+    <row r="61" spans="1:6" ht="14.1" customHeight="1"/>
+    <row r="62" spans="1:6" ht="14.1" customHeight="1"/>
+    <row r="63" spans="1:6" ht="14.1" customHeight="1"/>
+    <row r="64" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="65" ht="14.1" customHeight="1"/>
     <row r="66" ht="14.1" customHeight="1"/>
     <row r="67" ht="14.1" customHeight="1"/>
@@ -1710,30 +1899,35 @@
     <row r="70" ht="14.1" customHeight="1"/>
     <row r="71" ht="14.1" customHeight="1"/>
     <row r="72" ht="14.1" customHeight="1"/>
-    <row r="73" ht="12.95" customHeight="1"/>
-    <row r="74" ht="12.95" customHeight="1"/>
+    <row r="73" ht="14.1" customHeight="1"/>
+    <row r="74" ht="14.1" customHeight="1"/>
+    <row r="75" ht="14.1" customHeight="1"/>
+    <row r="76" ht="14.1" customHeight="1"/>
+    <row r="77" ht="12.95" customHeight="1"/>
+    <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="D35:D46"/>
-    <mergeCell ref="A18:A52"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B32:B34"/>
+  <mergeCells count="21">
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B16"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="E39:E50"/>
+    <mergeCell ref="A22:A56"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B36:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,11 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등록된 상품을 조회 및 수정하는 기능. 상품의 정보(사진, 상품명, 가격, 등록일) 및 상태(판매상태, 관심)을 나타내며,
-상품을 삭제 할 수 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,10 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>후기 목록들을 보여줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,15 +476,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 판매중인 상품의 목록들을 보여줌. 클릭시 상세 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>찜한목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>찜한 상품의 목록들을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 판매중인 상품의 목록들을 보여줌. 클릭시 판매상품을 수정할 수 있는 상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품목록/관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매한 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매한 상품의 목록들을 보여줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,7 +677,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,63 +758,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,24 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1010,19 +1012,19 @@
     <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="123" style="21" customWidth="1"/>
+    <col min="5" max="5" width="123" style="11" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1050,7 +1052,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="12"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1074,22 +1076,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1098,792 +1100,792 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="15" t="s">
-        <v>31</v>
+      <c r="D5" s="12"/>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="24" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A8" s="21"/>
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
+      <c r="A12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
+      <c r="A13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A17" s="21"/>
+      <c r="B17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" ht="24">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:26" s="21" customFormat="1" ht="12">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:26" s="21" customFormat="1" ht="12">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:26" s="21" customFormat="1" ht="12">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:26" s="21" customFormat="1" ht="12">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:26" s="21" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A17" s="26"/>
-      <c r="B17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="15" t="s">
-        <v>92</v>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" s="21" customFormat="1" ht="36">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
       <c r="A19" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="36">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" s="21" customFormat="1" ht="36">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A21" s="25"/>
+      <c r="B21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="15" t="s">
-        <v>99</v>
+      <c r="D21" s="12"/>
+      <c r="E21" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A22" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="31" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A22" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31" t="s">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="1:10" s="21" customFormat="1" ht="24">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-    </row>
-    <row r="29" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="15" t="s">
-        <v>91</v>
+      <c r="E29" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="15" t="s">
-        <v>76</v>
+      <c r="E31" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A35" s="38"/>
+      <c r="B35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A37" s="38"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A38" s="38"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A39" s="38"/>
+      <c r="B39" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="16" t="s">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A40" s="38"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A41" s="38"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A42" s="38"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A43" s="38"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A44" s="38"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A45" s="38"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A46" s="38"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A47" s="38"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A48" s="38"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A49" s="38"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A50" s="38"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A51" s="38"/>
+      <c r="B51" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
+      <c r="A52" s="38"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A53" s="38"/>
+      <c r="B53" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A54" s="38"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A55" s="38"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A56" s="38"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" s="21" customFormat="1" ht="12">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" s="21" customFormat="1" ht="36">
-      <c r="A52" s="31"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D56" s="6"/>
-      <c r="E56" s="16" t="s">
-        <v>93</v>
+      <c r="E56" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" s="21" customFormat="1" ht="14.1" customHeight="1"/>
+    <row r="57" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="60" spans="1:6" ht="14.1" customHeight="1"/>
@@ -1907,16 +1909,6 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="A22:A56"/>
@@ -1928,6 +1920,16 @@
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>기능 설명</t>
   </si>
@@ -657,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,23 +716,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,40 +776,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1018,11 +1021,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="19"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1076,22 +1079,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="32" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1100,22 +1103,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1132,8 +1135,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1148,8 +1151,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
@@ -1166,8 +1169,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1186,8 +1189,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1204,8 +1207,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1222,12 +1225,14 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>115</v>
       </c>
@@ -1238,8 +1243,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="21"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="12" t="s">
         <v>117</v>
       </c>
@@ -1254,8 +1259,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="12" t="s">
         <v>113</v>
       </c>
@@ -1270,8 +1275,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="12" t="s">
         <v>104</v>
       </c>
@@ -1286,8 +1291,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="12" t="s">
         <v>105</v>
       </c>
@@ -1302,8 +1307,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +1327,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="21"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="14" t="s">
         <v>53</v>
       </c>
@@ -1340,7 +1345,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="14" t="s">
         <v>80</v>
       </c>
@@ -1358,10 +1363,10 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1378,8 +1383,8 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
@@ -1394,7 +1399,7 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="25"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="14" t="s">
         <v>96</v>
       </c>
@@ -1412,10 +1417,10 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1434,8 +1439,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1450,8 +1455,8 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1466,9 +1471,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1484,9 +1489,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="5" t="s">
         <v>109</v>
       </c>
@@ -1500,9 +1505,9 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="5" t="s">
         <v>111</v>
       </c>
@@ -1516,8 +1521,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1534,8 +1539,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1550,8 +1555,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1570,8 +1575,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1586,8 +1591,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1602,8 +1607,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
@@ -1618,8 +1623,8 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
@@ -1634,7 +1639,7 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="38"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -1648,8 +1653,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1662,8 +1667,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
@@ -1674,8 +1679,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="6" t="s">
         <v>86</v>
       </c>
@@ -1686,132 +1691,132 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="38"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="34"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="38"/>
-      <c r="B41" s="34"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="36"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="34"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="36"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="38"/>
-      <c r="B43" s="34"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="36"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" s="34"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="36"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="34"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="36"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="34"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="36"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="34"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="36"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="34"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="36"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="38"/>
-      <c r="B49" s="34"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="36"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" s="37"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="38"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="25"/>
+      <c r="B51" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -1824,8 +1829,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="38"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
@@ -1836,8 +1841,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="38"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -1850,8 +1855,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="38"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="6" t="s">
         <v>68</v>
       </c>
@@ -1862,8 +1867,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="38"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="6" t="s">
         <v>93</v>
       </c>
@@ -1874,8 +1879,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="38"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
@@ -1909,6 +1914,16 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="A22:A56"/>
@@ -1920,16 +1935,6 @@
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="요구사항분석 명세서" sheetId="1" r:id="rId1"/>
+    <sheet name="나중에 해야 할 기능" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>기능 설명</t>
   </si>
@@ -497,6 +498,147 @@
   </si>
   <si>
     <t>판매한 상품의 목록들을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글자수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제한하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글자로</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가판대생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정하기</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +646,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -559,8 +701,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +732,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF26A901"/>
         <bgColor rgb="FF26A901"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -657,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,6 +886,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,15 +943,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,38 +952,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1193,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1021,11 +1209,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="19"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1079,22 +1267,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1103,22 +1291,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1135,8 +1323,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1151,8 +1339,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
@@ -1169,8 +1357,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1189,8 +1377,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1207,8 +1395,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1225,8 +1413,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="41"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
@@ -1243,8 +1431,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="41"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="12" t="s">
         <v>117</v>
       </c>
@@ -1259,8 +1447,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="41"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="12" t="s">
         <v>113</v>
       </c>
@@ -1275,8 +1463,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="41"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="12" t="s">
         <v>104</v>
       </c>
@@ -1291,8 +1479,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="41"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="12" t="s">
         <v>105</v>
       </c>
@@ -1307,8 +1495,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1515,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="41"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="14" t="s">
         <v>53</v>
       </c>
@@ -1345,7 +1533,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="14" t="s">
         <v>80</v>
       </c>
@@ -1363,10 +1551,10 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1383,8 +1571,8 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
@@ -1399,7 +1587,7 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="27"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="14" t="s">
         <v>96</v>
       </c>
@@ -1417,10 +1605,10 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1439,8 +1627,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1455,8 +1643,8 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1471,9 +1659,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1489,9 +1677,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="5" t="s">
         <v>109</v>
       </c>
@@ -1505,9 +1693,9 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="5" t="s">
         <v>111</v>
       </c>
@@ -1521,8 +1709,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1539,8 +1727,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1555,8 +1743,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1575,8 +1763,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1591,8 +1779,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1607,8 +1795,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
@@ -1623,8 +1811,8 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
@@ -1639,7 +1827,7 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="25"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -1653,8 +1841,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A36" s="25"/>
-      <c r="B36" s="29" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1667,8 +1855,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
@@ -1679,8 +1867,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="6" t="s">
         <v>86</v>
       </c>
@@ -1691,132 +1879,132 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="36" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="23"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="23"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="23"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="23"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="23"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="23"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="23"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="23"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="23"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" s="24"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="21" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -1829,8 +2017,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="25"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
@@ -1841,8 +2029,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="35" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -1855,8 +2043,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="6" t="s">
         <v>68</v>
       </c>
@@ -1867,8 +2055,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="6" t="s">
         <v>93</v>
       </c>
@@ -1879,8 +2067,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
@@ -1891,7 +2079,15 @@
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
-    <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
+    <row r="58" spans="1:6" ht="14.1" customHeight="1">
+      <c r="C58" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="44">
+        <f>COUNTA(D5:D56) / COUNTA(C5:C56)</f>
+        <v>0.2</v>
+      </c>
+    </row>
     <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="60" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="61" spans="1:6" ht="14.1" customHeight="1"/>
@@ -1914,16 +2110,6 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="A22:A56"/>
@@ -1935,9 +2121,271 @@
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="46"/>
+    <col min="2" max="2" width="16.28515625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="46" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="49"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="49"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
   <si>
     <t>기능 설명</t>
   </si>
@@ -638,6 +638,144 @@
         <charset val="129"/>
       </rPr>
       <t>설정하기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지별로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한설정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연락하기버튼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -886,14 +1024,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,63 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,8 +1331,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1209,11 +1347,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="19"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1267,22 +1405,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1291,22 +1429,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="32"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1323,8 +1461,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1339,8 +1477,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
@@ -1357,8 +1495,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1377,8 +1515,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1395,8 +1533,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1413,8 +1551,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="29"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
@@ -1431,8 +1569,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="29"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12" t="s">
         <v>117</v>
       </c>
@@ -1447,8 +1585,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="29"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="12" t="s">
         <v>113</v>
       </c>
@@ -1463,8 +1601,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="29"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12" t="s">
         <v>104</v>
       </c>
@@ -1479,8 +1617,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="29"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="12" t="s">
         <v>105</v>
       </c>
@@ -1495,8 +1633,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1653,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="29"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="14" t="s">
         <v>53</v>
       </c>
@@ -1533,7 +1671,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="30"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="14" t="s">
         <v>80</v>
       </c>
@@ -1551,10 +1689,10 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1571,8 +1709,8 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
@@ -1587,7 +1725,7 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="23"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="14" t="s">
         <v>96</v>
       </c>
@@ -1605,10 +1743,10 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1627,8 +1765,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1643,8 +1781,8 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1659,9 +1797,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1677,9 +1815,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="5" t="s">
         <v>109</v>
       </c>
@@ -1693,9 +1831,9 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="5" t="s">
         <v>111</v>
       </c>
@@ -1709,8 +1847,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1727,8 +1865,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1743,8 +1881,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1763,8 +1901,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1779,8 +1917,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1795,8 +1933,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
@@ -1811,8 +1949,8 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
@@ -1827,7 +1965,7 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -1841,8 +1979,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="36" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1855,8 +1993,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
@@ -1867,8 +2005,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="6" t="s">
         <v>86</v>
       </c>
@@ -1879,132 +2017,132 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="37"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="37"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="37"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="37"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="37"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="37"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="37"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="35"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="37"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="37"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="35"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="37"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" s="38"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="35" t="s">
+      <c r="A51" s="32"/>
+      <c r="B51" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2017,8 +2155,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="39"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
@@ -2029,8 +2167,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="35" t="s">
+      <c r="A53" s="32"/>
+      <c r="B53" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2043,8 +2181,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="6" t="s">
         <v>68</v>
       </c>
@@ -2055,8 +2193,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="6" t="s">
         <v>93</v>
       </c>
@@ -2067,8 +2205,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="39"/>
-      <c r="B56" s="35"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
@@ -2080,10 +2218,10 @@
     </row>
     <row r="57" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="58" spans="1:6" ht="14.1" customHeight="1">
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="44">
+      <c r="D58" s="22">
         <f>COUNTA(D5:D56) / COUNTA(C5:C56)</f>
         <v>0.2</v>
       </c>
@@ -2110,6 +2248,16 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="A22:A56"/>
@@ -2121,16 +2269,6 @@
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2143,249 +2281,258 @@
   <dimension ref="B2:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="46"/>
-    <col min="2" max="2" width="16.28515625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="70.42578125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="46" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="25.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="B5" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="2:4" ht="12" customHeight="1">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
   <si>
     <t>기능 설명</t>
   </si>
@@ -962,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,6 +1045,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1060,15 +1105,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1076,39 +1112,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1331,8 +1334,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1414,10 +1417,10 @@
       <c r="C3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="34" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="39" t="s">
@@ -1432,8 +1435,8 @@
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="39"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="40"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1441,10 +1444,10 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1461,8 +1464,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1477,8 +1480,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
@@ -1495,8 +1498,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1515,8 +1518,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1533,8 +1536,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1551,8 +1554,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="48"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
@@ -1569,12 +1572,14 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="48"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="E12" s="8" t="s">
         <v>118</v>
       </c>
@@ -1585,8 +1590,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="48"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="12" t="s">
         <v>113</v>
       </c>
@@ -1601,8 +1606,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="48"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
         <v>104</v>
       </c>
@@ -1617,8 +1622,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="48"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
         <v>105</v>
       </c>
@@ -1633,8 +1638,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1658,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="48"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="14" t="s">
         <v>53</v>
       </c>
@@ -1671,7 +1676,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="49"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="14" t="s">
         <v>80</v>
       </c>
@@ -1689,10 +1694,10 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1709,8 +1714,8 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
@@ -1725,7 +1730,7 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="34"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="14" t="s">
         <v>96</v>
       </c>
@@ -1743,10 +1748,10 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1765,8 +1770,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1781,8 +1786,8 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1797,9 +1802,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1815,9 +1820,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="5" t="s">
         <v>109</v>
       </c>
@@ -1831,9 +1836,9 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="5" t="s">
         <v>111</v>
       </c>
@@ -1847,8 +1852,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1870,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1886,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1901,8 +1906,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1917,8 +1922,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1933,8 +1938,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
@@ -1949,8 +1954,8 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
@@ -1965,7 +1970,7 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="32"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -1979,8 +1984,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A36" s="32"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1993,8 +1998,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
@@ -2005,8 +2010,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="6" t="s">
         <v>86</v>
       </c>
@@ -2017,132 +2022,132 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="44" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="30"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="30"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="30"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="30"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="30"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="30"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="30"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="30"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="30"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="28" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2155,8 +2160,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="32"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
@@ -2167,8 +2172,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="32"/>
-      <c r="B53" s="28" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2181,8 +2186,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="6" t="s">
         <v>68</v>
       </c>
@@ -2193,8 +2198,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="6" t="s">
         <v>93</v>
       </c>
@@ -2205,8 +2210,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="28"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
@@ -2223,7 +2228,7 @@
       </c>
       <c r="D58" s="22">
         <f>COUNTA(D5:D56) / COUNTA(C5:C56)</f>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2248,16 +2253,6 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="A22:A56"/>
@@ -2269,6 +2264,16 @@
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석 명세서" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
   <si>
     <t>기능 설명</t>
   </si>
@@ -776,6 +776,80 @@
         <charset val="129"/>
       </rPr>
       <t>실행</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가판대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탭에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시하기</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,14 +1122,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,42 +1186,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1408,7 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -1350,11 +1424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="19"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1408,22 +1482,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1432,22 +1506,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1464,8 +1538,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1480,8 +1554,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
@@ -1498,8 +1572,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1518,8 +1592,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1536,8 +1610,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1628,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="37"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
@@ -1572,8 +1646,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="37"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="12" t="s">
         <v>117</v>
       </c>
@@ -1590,8 +1664,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="37"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="12" t="s">
         <v>113</v>
       </c>
@@ -1606,8 +1680,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="37"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="12" t="s">
         <v>104</v>
       </c>
@@ -1622,8 +1696,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="37"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="12" t="s">
         <v>105</v>
       </c>
@@ -1638,8 +1712,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1732,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="37"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="14" t="s">
         <v>53</v>
       </c>
@@ -1676,7 +1750,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="14" t="s">
         <v>80</v>
       </c>
@@ -1694,10 +1768,10 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1714,8 +1788,8 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
@@ -1730,7 +1804,7 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="14" t="s">
         <v>96</v>
       </c>
@@ -1748,10 +1822,10 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1770,8 +1844,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1786,8 +1860,8 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1802,9 +1876,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1820,9 +1894,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="5" t="s">
         <v>109</v>
       </c>
@@ -1836,9 +1910,9 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="5" t="s">
         <v>111</v>
       </c>
@@ -1852,8 +1926,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1870,8 +1944,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1886,8 +1960,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1906,8 +1980,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1922,8 +1996,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1938,8 +2012,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
@@ -1954,8 +2028,8 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
@@ -1970,7 +2044,7 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -1984,8 +2058,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="37" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1998,8 +2072,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
@@ -2010,8 +2084,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
         <v>86</v>
       </c>
@@ -2022,132 +2096,132 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="30" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="45"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="45"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="45"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="45"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="45"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="45"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="45"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="45"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="45"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="45"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="47"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" s="46"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="43" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2160,8 +2234,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="47"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
@@ -2172,8 +2246,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="43" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2186,8 +2260,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="47"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="6" t="s">
         <v>68</v>
       </c>
@@ -2198,8 +2272,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="6" t="s">
         <v>93</v>
       </c>
@@ -2210,8 +2284,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="47"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
@@ -2253,6 +2327,16 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="A22:A56"/>
@@ -2264,16 +2348,6 @@
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2285,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2346,8 +2420,12 @@
       <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:4" ht="12" customHeight="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="2:4">

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -1122,6 +1122,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,15 +1179,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,39 +1186,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1424,11 +1424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="19"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1482,22 +1482,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1506,22 +1506,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="41"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1538,8 +1538,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
@@ -1554,8 +1554,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
@@ -1572,8 +1572,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1592,8 +1592,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1610,8 +1610,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1628,8 +1628,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="49"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="49"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>117</v>
       </c>
@@ -1664,8 +1664,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="49"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="12" t="s">
         <v>113</v>
       </c>
@@ -1680,8 +1680,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="49"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
         <v>104</v>
       </c>
@@ -1696,8 +1696,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="49"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
         <v>105</v>
       </c>
@@ -1712,8 +1712,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="49"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="14" t="s">
         <v>53</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="50"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="14" t="s">
         <v>80</v>
       </c>
@@ -1768,10 +1768,10 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1788,8 +1788,8 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A20" s="36"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="35"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="14" t="s">
         <v>96</v>
       </c>
@@ -1822,10 +1822,10 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1844,8 +1844,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1860,8 +1860,8 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1876,9 +1876,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1894,9 +1894,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="5" t="s">
         <v>109</v>
       </c>
@@ -1910,9 +1910,9 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="5" t="s">
         <v>111</v>
       </c>
@@ -1926,8 +1926,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +1944,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1960,8 +1960,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1980,8 +1980,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1996,8 +1996,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
@@ -2012,8 +2012,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
@@ -2028,8 +2028,8 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="33"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -2058,8 +2058,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A36" s="33"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2072,8 +2072,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
@@ -2084,8 +2084,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="6" t="s">
         <v>86</v>
       </c>
@@ -2096,132 +2096,132 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="44" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="33"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="33"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="31"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="33"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="31"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="33"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="33"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="33"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="33"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="31"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="33"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" s="32"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="33"/>
-      <c r="B51" s="29" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2234,8 +2234,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="33"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
@@ -2246,8 +2246,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="33"/>
-      <c r="B53" s="29" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2260,8 +2260,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="33"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="6" t="s">
         <v>68</v>
       </c>
@@ -2272,8 +2272,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="6" t="s">
         <v>93</v>
       </c>
@@ -2284,8 +2284,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
@@ -2327,16 +2327,6 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="A22:A56"/>
@@ -2348,6 +2338,16 @@
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2360,7 +2360,7 @@
   <dimension ref="B2:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석 명세서" sheetId="1" r:id="rId1"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매자 정보를 표시(가판대명, 가판대 소개글, 가판대 이미지, 별점)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관심상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -851,6 +847,10 @@
       </rPr>
       <t>표시하기</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 정보를 표시(가판대명, 가판대 소개글, 가판대 이미지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,12 +1086,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,6 +1116,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1147,9 +1147,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,8 +1405,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1424,12 +1421,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -1482,22 +1479,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1506,12 +1503,12 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="40"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1555,17 +1552,15 @@
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
       <c r="A7" s="37"/>
-      <c r="B7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="12" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F7" s="27"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1573,19 +1568,17 @@
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
       <c r="A8" s="37"/>
-      <c r="B8" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="31"/>
       <c r="C8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -1593,15 +1586,17 @@
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
       <c r="A9" s="37"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="13"/>
@@ -1613,13 +1608,13 @@
       <c r="A10" s="37"/>
       <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="13"/>
@@ -1627,17 +1622,17 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
+    <row r="11" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="30"/>
       <c r="C11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>110</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="13"/>
@@ -1649,15 +1644,15 @@
       <c r="A12" s="37"/>
       <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -1667,13 +1662,15 @@
       <c r="A13" s="37"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="E13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F13" s="15"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -1683,11 +1680,13 @@
       <c r="A14" s="37"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="E14" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
@@ -1699,11 +1698,11 @@
       <c r="A15" s="37"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
@@ -1711,55 +1710,53 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="12">
       <c r="A16" s="37"/>
-      <c r="B16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="21.75" customHeight="1">
       <c r="A17" s="37"/>
-      <c r="B17" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="B17" s="31"/>
       <c r="C17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A18" s="37"/>
       <c r="B18" s="14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="8" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="13"/>
@@ -1806,14 +1803,14 @@
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
       <c r="A21" s="31"/>
       <c r="B21" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="13"/>
@@ -1822,20 +1819,20 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="13"/>
@@ -1844,8 +1841,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1860,8 +1857,8 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1876,13 +1873,13 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>20</v>
@@ -1894,11 +1891,11 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>21</v>
@@ -1910,14 +1907,14 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="13"/>
@@ -1926,8 +1923,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1944,14 +1941,14 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="13"/>
@@ -1960,15 +1957,15 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>74</v>
@@ -1980,8 +1977,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1996,8 +1993,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
@@ -2012,14 +2009,14 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="13"/>
@@ -2028,14 +2025,14 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="13"/>
@@ -2044,7 +2041,7 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -2058,170 +2055,170 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="42" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="44" t="s">
+      <c r="D39" s="47"/>
+      <c r="E39" s="43" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="45"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="45"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="45"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="45"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="45"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="45"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="45"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="45"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="45"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="44"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="45"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="47"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="46"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="45"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="43" t="s">
+      <c r="A51" s="46"/>
+      <c r="B51" s="42" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2234,34 +2231,34 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="47"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="43" t="s">
-        <v>112</v>
+      <c r="A53" s="46"/>
+      <c r="B53" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="9" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="47"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="6" t="s">
         <v>68</v>
       </c>
@@ -2272,37 +2269,37 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="47"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="58" spans="1:6" ht="14.1" customHeight="1">
-      <c r="C58" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="22">
+      <c r="C58" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="20">
         <f>COUNTA(D5:D56) / COUNTA(C5:C56)</f>
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2326,7 +2323,7 @@
     <row r="77" ht="12.95" customHeight="1"/>
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="A22:A56"/>
@@ -2338,16 +2335,17 @@
     <mergeCell ref="B22:B29"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D39:D50"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B5:B8"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B9:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2359,259 +2357,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="25.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="25.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="2:4" ht="12" customHeight="1">
+      <c r="B7" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="2:4" ht="12" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
   <si>
     <t>기능 설명</t>
   </si>
@@ -116,14 +116,6 @@
   </si>
   <si>
     <t>상품 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매/판매 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금까지 구매하거나 판매한 내역을 보여준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -851,6 +843,10 @@
   </si>
   <si>
     <t>판매자 정보를 표시(가판대명, 가판대 소개글, 가판대 이미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,6 +1116,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1403,10 +1408,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1421,11 +1426,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="17"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1479,22 +1484,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="A3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1503,22 +1508,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1526,7 +1531,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="13"/>
@@ -1535,68 +1540,70 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="F6" s="27"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="12" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="E8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="40"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="13"/>
@@ -1605,16 +1612,16 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="13"/>
@@ -1622,17 +1629,17 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
+      <c r="A11" s="40"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="13"/>
@@ -1641,52 +1648,50 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="37"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="37"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="37"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
@@ -1695,14 +1700,14 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="37"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
@@ -1710,53 +1715,57 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A16" s="37"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>108</v>
-      </c>
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A17" s="40"/>
+      <c r="B17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A18" s="37"/>
-      <c r="B18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="12"/>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
+      <c r="A18" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="13"/>
@@ -1765,18 +1774,14 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>49</v>
-      </c>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="13"/>
@@ -1784,15 +1789,17 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="5"/>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A20" s="34"/>
+      <c r="B20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="12"/>
       <c r="E20" s="8" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="13"/>
@@ -1801,16 +1808,20 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="31"/>
-      <c r="B21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="12"/>
+      <c r="A21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="E21" s="8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="13"/>
@@ -1818,21 +1829,15 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>109</v>
-      </c>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="8" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="13"/>
@@ -1841,14 +1846,14 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="13"/>
@@ -1856,15 +1861,17 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5"/>
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E24" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="13"/>
@@ -1872,17 +1879,15 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46" t="s">
-        <v>19</v>
-      </c>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="13"/>
@@ -1890,15 +1895,15 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="13"/>
@@ -1907,48 +1912,52 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49" t="s">
+        <v>3</v>
+      </c>
       <c r="C29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E29" s="8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="13"/>
@@ -1956,19 +1965,15 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="13"/>
@@ -1977,14 +1982,14 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="5" t="s">
-        <v>15</v>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="13"/>
@@ -1993,14 +1998,14 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="5" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="13"/>
@@ -2009,14 +2014,14 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="13"/>
@@ -2025,40 +2030,36 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="46"/>
-      <c r="B35" s="6" t="s">
-        <v>28</v>
+      <c r="A34" s="49"/>
+      <c r="B34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="9" t="s">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47" t="s">
-        <v>80</v>
-      </c>
+    <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A36" s="49"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="6" t="s">
         <v>81</v>
       </c>
@@ -2069,8 +2070,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="46"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="6" t="s">
         <v>83</v>
       </c>
@@ -2081,227 +2082,220 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="46"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="C38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="10" t="s">
-        <v>86</v>
+        <v>34</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="46"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A40" s="49"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="46"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A41" s="49"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A42" s="49"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A43" s="49"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="46"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="6" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A44" s="49"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A45" s="49"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A46" s="49"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A47" s="49"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="46"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="46"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="6" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A48" s="49"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="46"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="46"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="46"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="44"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="46"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="44"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="45" t="s">
+        <v>59</v>
+      </c>
       <c r="C50" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="46"/>
-      <c r="B51" s="42" t="s">
-        <v>61</v>
-      </c>
+    <row r="51" spans="1:6" s="11" customFormat="1" ht="36">
+      <c r="A51" s="49"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="9" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="46"/>
-      <c r="B52" s="42"/>
+    <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A52" s="49"/>
+      <c r="B52" s="45" t="s">
+        <v>109</v>
+      </c>
       <c r="C52" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="E52" s="9" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="46"/>
-      <c r="B53" s="42" t="s">
-        <v>111</v>
-      </c>
+      <c r="A53" s="49"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="E53" s="9" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="46"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="9" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="46"/>
-      <c r="B55" s="42"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="6" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="46"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
-    <row r="58" spans="1:6" ht="14.1" customHeight="1">
-      <c r="C58" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="20">
-        <f>COUNTA(D5:D56) / COUNTA(C5:C56)</f>
-        <v>0.24</v>
-      </c>
-    </row>
+    <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
+    <row r="57" spans="1:6" ht="14.1" customHeight="1">
+      <c r="C57" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="20">
+        <f>COUNTA(D5:D55) / COUNTA(C5:C55)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="60" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="61" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2319,33 +2313,32 @@
     <row r="73" ht="14.1" customHeight="1"/>
     <row r="74" ht="14.1" customHeight="1"/>
     <row r="75" ht="14.1" customHeight="1"/>
-    <row r="76" ht="14.1" customHeight="1"/>
+    <row r="76" ht="12.95" customHeight="1"/>
     <row r="77" ht="12.95" customHeight="1"/>
-    <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="E39:E50"/>
-    <mergeCell ref="A22:A56"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D39:D50"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="E38:E49"/>
+    <mergeCell ref="A21:A55"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="D38:D49"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,57 +2365,57 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>121</v>
-      </c>
       <c r="D2" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>122</v>
       </c>
       <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:4" ht="12" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="25"/>
     </row>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
   <si>
     <t>기능 설명</t>
   </si>
@@ -332,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관심상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -847,6 +843,133 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분하기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품상세페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찜한상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜한상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,52 +1202,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,8 +1527,8 @@
   </sheetPr>
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1426,12 +1543,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -1484,22 +1601,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1508,22 +1625,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1540,24 +1657,26 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>132</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="E6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="F6" s="24"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
@@ -1574,15 +1693,15 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>107</v>
+      <c r="D8" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>61</v>
@@ -1594,13 +1713,13 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>107</v>
+      <c r="D9" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>62</v>
@@ -1612,13 +1731,13 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>107</v>
+      <c r="D10" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>63</v>
@@ -1630,16 +1749,16 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="40"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="13"/>
@@ -1648,16 +1767,16 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="40"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="13"/>
@@ -1666,16 +1785,16 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="40"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="13"/>
@@ -1684,14 +1803,14 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="40"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
@@ -1700,14 +1819,16 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="40"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="E15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
@@ -1716,16 +1837,16 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>25</v>
@@ -1736,11 +1857,11 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="40"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="12"/>
@@ -1754,16 +1875,16 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="8" t="s">
         <v>69</v>
       </c>
@@ -1774,12 +1895,12 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="8" t="s">
         <v>70</v>
       </c>
@@ -1790,16 +1911,16 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="34"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="13"/>
@@ -1808,20 +1929,20 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>107</v>
+      <c r="D21" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="13"/>
@@ -1830,12 +1951,12 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="8" t="s">
         <v>10</v>
       </c>
@@ -1846,12 +1967,12 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1862,13 +1983,13 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>106</v>
+      <c r="D24" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>20</v>
@@ -1880,11 +2001,11 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="5" t="s">
-        <v>106</v>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>21</v>
@@ -1896,14 +2017,14 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="5" t="s">
-        <v>108</v>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="13"/>
@@ -1912,12 +2033,12 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
@@ -1930,14 +2051,14 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="13"/>
@@ -1946,15 +2067,15 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>106</v>
+      <c r="D29" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>72</v>
@@ -1966,12 +2087,12 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="8" t="s">
         <v>73</v>
       </c>
@@ -1982,12 +2103,12 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="8" t="s">
         <v>74</v>
       </c>
@@ -1998,14 +2119,14 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="D32" s="28"/>
       <c r="E32" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="13"/>
@@ -2014,14 +2135,14 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="D33" s="28"/>
       <c r="E33" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="13"/>
@@ -2030,231 +2151,231 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="49"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A36" s="47"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="49"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="46" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="44" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="49"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="47"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="47"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="49"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="47"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="49"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="47"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="47"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="47"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="47"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="47"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="49"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="47"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="47"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="48"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A51" s="49"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="45" t="s">
-        <v>109</v>
+      <c r="A52" s="47"/>
+      <c r="B52" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>130</v>
+      <c r="D52" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>130</v>
+      <c r="D53" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>67</v>
@@ -2262,37 +2383,39 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="49"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="E55" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="57" spans="1:6" ht="14.1" customHeight="1">
-      <c r="C57" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="20">
+      <c r="C57" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="18">
         <f>COUNTA(D5:D55) / COUNTA(C5:C55)</f>
-        <v>0.2857142857142857</v>
+        <v>0.34693877551020408</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2351,258 +2474,262 @@
   <dimension ref="B2:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
-    <col min="2" max="2" width="25.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="39.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="2:4" ht="12" customHeight="1">
+      <c r="B7" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="2:4" ht="12" customHeight="1">
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
   <si>
     <t>기능 설명</t>
   </si>
@@ -1244,14 +1244,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,42 +1305,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1528,7 @@
   <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1543,11 +1543,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1601,22 +1601,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1625,28 +1625,30 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="40"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
@@ -1657,8 +1659,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="12" t="s">
         <v>132</v>
       </c>
@@ -1675,8 +1677,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
@@ -1693,8 +1695,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1713,8 +1715,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1731,8 +1733,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1749,8 +1751,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="38"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="12" t="s">
         <v>112</v>
       </c>
@@ -1767,8 +1769,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="38"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="12" t="s">
         <v>113</v>
       </c>
@@ -1785,8 +1787,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="38"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="12" t="s">
         <v>109</v>
       </c>
@@ -1803,8 +1805,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="38"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="12" t="s">
         <v>100</v>
       </c>
@@ -1819,8 +1821,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="38"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="12" t="s">
         <v>101</v>
       </c>
@@ -1837,8 +1839,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1857,7 +1859,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="38"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
@@ -1875,10 +1877,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1895,8 +1897,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1911,7 +1913,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="32"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="14" t="s">
         <v>92</v>
       </c>
@@ -1929,10 +1931,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1951,8 +1953,8 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="26" t="s">
         <v>6</v>
       </c>
@@ -1967,8 +1969,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="26" t="s">
         <v>7</v>
       </c>
@@ -1983,9 +1985,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="28" t="s">
@@ -2001,9 +2003,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="28" t="s">
         <v>105</v>
       </c>
@@ -2017,9 +2019,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="28" t="s">
         <v>107</v>
       </c>
@@ -2033,8 +2035,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2051,8 +2053,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2067,8 +2069,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2087,8 +2089,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2103,8 +2105,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="26" t="s">
         <v>16</v>
       </c>
@@ -2119,8 +2121,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="5" t="s">
         <v>96</v>
       </c>
@@ -2135,8 +2137,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="5" t="s">
         <v>97</v>
       </c>
@@ -2151,7 +2153,7 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
@@ -2165,8 +2167,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="38" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2179,8 +2181,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
         <v>80</v>
       </c>
@@ -2191,8 +2193,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="6" t="s">
         <v>82</v>
       </c>
@@ -2203,132 +2205,132 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="44" t="s">
+      <c r="D38" s="38"/>
+      <c r="E38" s="31" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="45"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="45"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="45"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="45"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="45"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="45"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="45"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="45"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="45"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="45"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="46"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="47"/>
-      <c r="B50" s="43" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -2341,8 +2343,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A51" s="47"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="6" t="s">
         <v>55</v>
       </c>
@@ -2353,8 +2355,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="47"/>
-      <c r="B52" s="43" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="30" t="s">
         <v>108</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2369,8 +2371,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="6" t="s">
         <v>66</v>
       </c>
@@ -2383,8 +2385,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="47"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="6" t="s">
         <v>89</v>
       </c>
@@ -2395,8 +2397,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="6" t="s">
         <v>57</v>
       </c>
@@ -2415,7 +2417,7 @@
       </c>
       <c r="D57" s="18">
         <f>COUNTA(D5:D55) / COUNTA(C5:C55)</f>
-        <v>0.34693877551020408</v>
+        <v>0.36734693877551022</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2440,6 +2442,16 @@
     <row r="77" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="E38:E49"/>
     <mergeCell ref="A21:A55"/>
@@ -2452,16 +2464,6 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D38:D49"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t>기능 설명</t>
   </si>
@@ -418,14 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디를 찾는기능(이름, 연락처 이용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호를 찾는기능(아이디, 연락처, 이메일을 이용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거래후기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -970,6 +962,14 @@
   </si>
   <si>
     <t>찜한상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디를 찾는기능(이름, 이메일 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 찾는기능(아이디, 이름, 이메일을 이용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,6 +1244,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,15 +1301,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,36 +1308,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1527,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1543,11 +1546,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1601,22 +1604,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1625,29 +1628,29 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>28</v>
@@ -1659,13 +1662,13 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -1677,12 +1680,14 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
@@ -1695,15 +1700,15 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>61</v>
@@ -1715,13 +1720,13 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>62</v>
@@ -1733,13 +1738,13 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>63</v>
@@ -1751,16 +1756,16 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="50"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="13"/>
@@ -1769,16 +1774,16 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="50"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="13"/>
@@ -1787,16 +1792,16 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="50"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="13"/>
@@ -1805,14 +1810,14 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="50"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
@@ -1821,16 +1826,16 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="50"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
@@ -1839,13 +1844,13 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>88</v>
@@ -1859,7 +1864,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="50"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
@@ -1877,10 +1882,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1897,8 +1902,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="37"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1913,7 +1918,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="36"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="14" t="s">
         <v>92</v>
       </c>
@@ -1931,17 +1936,17 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>84</v>
@@ -1953,8 +1958,8 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="26" t="s">
         <v>6</v>
       </c>
@@ -1969,8 +1974,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="26" t="s">
         <v>7</v>
       </c>
@@ -1985,13 +1990,13 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>20</v>
@@ -2003,11 +2008,11 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>21</v>
@@ -2019,11 +2024,11 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>95</v>
@@ -2035,8 +2040,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2053,8 +2058,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2069,15 +2074,15 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>72</v>
@@ -2089,8 +2094,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2105,8 +2110,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="26" t="s">
         <v>16</v>
       </c>
@@ -2121,14 +2126,16 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="E32" s="8" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="13"/>
@@ -2137,14 +2144,14 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="8" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="13"/>
@@ -2153,7 +2160,7 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
@@ -2167,8 +2174,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="34"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2181,8 +2188,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="6" t="s">
         <v>80</v>
       </c>
@@ -2193,8 +2200,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="6" t="s">
         <v>82</v>
       </c>
@@ -2205,132 +2212,132 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="31" t="s">
+      <c r="D38" s="49"/>
+      <c r="E38" s="45" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="32"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="32"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="32"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="32"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="32"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="32"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="32"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="32"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="33"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="48"/>
+      <c r="B50" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -2343,8 +2350,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A51" s="34"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="6" t="s">
         <v>55</v>
       </c>
@@ -2355,29 +2362,29 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="30" t="s">
-        <v>108</v>
+      <c r="A52" s="48"/>
+      <c r="B52" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="34"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>67</v>
@@ -2385,8 +2392,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="34"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="6" t="s">
         <v>89</v>
       </c>
@@ -2397,13 +2404,13 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="34"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>87</v>
@@ -2413,11 +2420,11 @@
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="57" spans="1:6" ht="14.1" customHeight="1">
       <c r="C57" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D57" s="18">
         <f>COUNTA(D5:D55) / COUNTA(C5:C55)</f>
-        <v>0.36734693877551022</v>
+        <v>0.40816326530612246</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2442,16 +2449,6 @@
     <row r="77" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="E38:E49"/>
     <mergeCell ref="A21:A55"/>
@@ -2464,6 +2461,16 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D38:D49"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2490,66 +2497,66 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="D2" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="2:4" ht="12" customHeight="1">
       <c r="B7" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="23"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="23"/>
     </row>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>기능 설명</t>
   </si>
@@ -344,22 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신규상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 및 알림 배너 밑에 위치하며, 등록일 기준으로 최신순으로 상품을 표시한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규상품 밑에 위치하며, 관심이 많은 상품순으로 표시한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일반적인 회원가입으로 [아이디], [비밀번호], [이름], [성별], [주소], [연락처], [이메일] 등을 작성받는다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -970,6 +954,26 @@
   </si>
   <si>
     <t>비밀번호를 찾는기능(아이디, 이름, 이메일을 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 및 알림 배너 밑에 위치하며, 등록일 기준으로 최신순으로 상품을 표시한다.(최대 32개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규상품 밑에 위치하며, 관심이 많은 상품순으로 표시한다.(최대 32개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,26 +1239,62 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1272,42 +1312,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1528,10 +1532,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1546,11 +1550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1604,22 +1608,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="42" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1628,29 +1632,29 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="41"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>28</v>
@@ -1662,16 +1666,16 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>104</v>
+        <v>126</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="13"/>
@@ -1680,13 +1684,13 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>104</v>
+      <c r="D7" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>49</v>
@@ -1700,15 +1704,15 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>104</v>
+      <c r="D8" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>61</v>
@@ -1720,13 +1724,13 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>104</v>
+      <c r="D9" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>62</v>
@@ -1738,13 +1742,13 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>104</v>
+      <c r="D10" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>63</v>
@@ -1756,16 +1760,16 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="39"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="13"/>
@@ -1774,16 +1778,16 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="39"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="13"/>
@@ -1792,16 +1796,16 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="39"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="13"/>
@@ -1810,14 +1814,14 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="39"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
@@ -1826,16 +1830,16 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="39"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
@@ -1844,16 +1848,16 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>25</v>
@@ -1864,7 +1868,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="39"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
@@ -1882,16 +1886,16 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="8" t="s">
         <v>69</v>
       </c>
@@ -1902,12 +1906,12 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="8" t="s">
         <v>70</v>
       </c>
@@ -1918,16 +1922,16 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="33"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="13"/>
@@ -1936,20 +1940,20 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>104</v>
+      <c r="D21" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="13"/>
@@ -1958,12 +1962,12 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="8" t="s">
         <v>10</v>
       </c>
@@ -1974,12 +1978,12 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1990,13 +1994,13 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>103</v>
+      <c r="D24" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>20</v>
@@ -2008,11 +2012,11 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="28" t="s">
-        <v>103</v>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>21</v>
@@ -2024,14 +2028,14 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="28" t="s">
-        <v>105</v>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="13"/>
@@ -2040,12 +2044,12 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
@@ -2058,14 +2062,14 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="13"/>
@@ -2074,15 +2078,15 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>103</v>
+      <c r="D29" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>72</v>
@@ -2094,12 +2098,12 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="8" t="s">
         <v>73</v>
       </c>
@@ -2110,12 +2114,12 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="8" t="s">
         <v>74</v>
       </c>
@@ -2126,16 +2130,16 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="13"/>
@@ -2144,14 +2148,16 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="28"/>
+        <v>93</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="E33" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="13"/>
@@ -2160,274 +2166,289 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="29"/>
+      <c r="D35" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="E35" s="10" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="29"/>
+        <v>129</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="E36" s="10" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="29"/>
+        <v>130</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="E37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A39" s="35"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A41" s="35"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A42" s="35"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A43" s="35"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A44" s="35"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A45" s="35"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A46" s="35"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A47" s="35"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A48" s="35"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A49" s="35"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A50" s="35"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A51" s="35"/>
+      <c r="B51" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
+      <c r="A52" s="35"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A53" s="35"/>
+      <c r="B53" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A54" s="35"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A55" s="35"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A56" s="35"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A51" s="48"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="48"/>
-      <c r="B52" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="48"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
-    <row r="57" spans="1:6" ht="14.1" customHeight="1">
-      <c r="C57" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="18">
-        <f>COUNTA(D5:D55) / COUNTA(C5:C55)</f>
-        <v>0.40816326530612246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
+    <row r="58" spans="1:6" ht="14.1" customHeight="1">
+      <c r="C58" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="18">
+        <f>COUNTA(D5:D56)/(COUNTA(C5:C56))</f>
+        <v>0.48</v>
+      </c>
+    </row>
     <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="60" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="61" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2445,32 +2466,32 @@
     <row r="73" ht="14.1" customHeight="1"/>
     <row r="74" ht="14.1" customHeight="1"/>
     <row r="75" ht="14.1" customHeight="1"/>
-    <row r="76" ht="12.95" customHeight="1"/>
+    <row r="76" ht="14.1" customHeight="1"/>
     <row r="77" ht="12.95" customHeight="1"/>
+    <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="E38:E49"/>
-    <mergeCell ref="A21:A55"/>
+  <mergeCells count="21">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="E38:E50"/>
+    <mergeCell ref="A21:A56"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B38:B50"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D38:D49"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2497,66 +2518,66 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="2:4" ht="12" customHeight="1">
       <c r="B7" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" s="23"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="23"/>
     </row>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석 명세서" sheetId="1" r:id="rId1"/>
-    <sheet name="나중에 해야 할 기능" sheetId="2" r:id="rId2"/>
+    <sheet name="나중에 해야 할 기능 및 수정사항" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="136">
   <si>
     <t>기능 설명</t>
   </si>
@@ -323,11 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품을 카테고리 구분으로 화면에 표시, 카테고리 페이지 내에 검색기능 필요 
-필터적용기능(최신순, 가격이 낮은순, 가격이 높은순)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가판대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,10 +956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관심상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광고 및 알림 배너 밑에 위치하며, 등록일 기준으로 최신순으로 상품을 표시한다.(최대 32개)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,6 +965,258 @@
   </si>
   <si>
     <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심수가 높은 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품을 카테고리 구분으로 화면에 표시, 필터적용기능(최신순, 가격이 낮은순, 가격이 높은순)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가판대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지수정버튼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가판대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못함</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,6 +1494,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1266,15 +1548,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1282,36 +1555,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1534,8 +1777,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1550,11 +1793,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1608,22 +1851,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1632,29 +1875,29 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>28</v>
@@ -1666,16 +1909,16 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="13"/>
@@ -1684,13 +1927,13 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>49</v>
@@ -1704,15 +1947,15 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>61</v>
@@ -1724,13 +1967,13 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>62</v>
@@ -1742,13 +1985,13 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>63</v>
@@ -1760,16 +2003,16 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="51"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="13"/>
@@ -1778,16 +2021,16 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="51"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="13"/>
@@ -1796,16 +2039,16 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="51"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="13"/>
@@ -1814,14 +2057,14 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="51"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
@@ -1830,16 +2073,16 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="51"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
@@ -1848,16 +2091,16 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>25</v>
@@ -1868,7 +2111,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="51"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
@@ -1886,10 +2129,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1906,8 +2149,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1922,16 +2165,16 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="37"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="13"/>
@@ -1940,20 +2183,20 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="13"/>
@@ -1962,8 +2205,8 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="26" t="s">
         <v>6</v>
       </c>
@@ -1978,8 +2221,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="26" t="s">
         <v>7</v>
       </c>
@@ -1994,13 +2237,13 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>20</v>
@@ -2012,11 +2255,11 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>21</v>
@@ -2028,14 +2271,14 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="13"/>
@@ -2044,8 +2287,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2062,14 +2305,14 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="13"/>
@@ -2078,15 +2321,15 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>72</v>
@@ -2098,8 +2341,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2114,8 +2357,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="26" t="s">
         <v>16</v>
       </c>
@@ -2130,16 +2373,16 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="13"/>
@@ -2148,16 +2391,16 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="13"/>
@@ -2166,7 +2409,7 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="35"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
@@ -2180,186 +2423,186 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="35"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="35"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="35"/>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="32" t="s">
-        <v>75</v>
+      <c r="E38" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="30"/>
-      <c r="E39" s="33"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="33"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="30"/>
-      <c r="E41" s="33"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="35"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="33"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="35"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="30"/>
-      <c r="E43" s="33"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="33"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="30"/>
-      <c r="E45" s="33"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="30"/>
-      <c r="E46" s="33"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="30"/>
-      <c r="E47" s="33"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="35"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="30"/>
-      <c r="E48" s="33"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D49" s="30"/>
-      <c r="E49" s="33"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="35"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="30"/>
-      <c r="E50" s="34"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="35"/>
-      <c r="B51" s="31" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2372,41 +2615,41 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="35"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="35"/>
-      <c r="B53" s="31" t="s">
-        <v>102</v>
+      <c r="A53" s="48"/>
+      <c r="B53" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="35"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>67</v>
@@ -2414,35 +2657,35 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="35"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="35"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="58" spans="1:6" ht="14.1" customHeight="1">
       <c r="C58" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="18">
         <f>COUNTA(D5:D56)/(COUNTA(C5:C56))</f>
@@ -2471,16 +2714,6 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E38:E50"/>
     <mergeCell ref="A21:A56"/>
@@ -2492,6 +2725,16 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2503,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2518,72 +2761,76 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="2:4" ht="12" customHeight="1">
       <c r="B7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="D7" s="23"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:4">

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석 명세서" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
   <si>
     <t>기능 설명</t>
   </si>
@@ -1216,6 +1216,99 @@
         <charset val="129"/>
       </rPr>
       <t>못함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해결</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1402,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1494,14 +1587,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1519,42 +1651,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1777,8 +1873,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1793,11 +1889,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1851,22 +1947,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="43" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1875,22 +1971,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="41"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1909,8 +2005,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="12" t="s">
         <v>125</v>
       </c>
@@ -1927,8 +2023,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2043,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1967,8 +2063,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1985,8 +2081,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -2003,8 +2099,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="39"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="12" t="s">
         <v>105</v>
       </c>
@@ -2021,8 +2117,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="39"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="12" t="s">
         <v>106</v>
       </c>
@@ -2039,8 +2135,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="39"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="12" t="s">
         <v>102</v>
       </c>
@@ -2057,8 +2153,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="39"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="12" t="s">
         <v>93</v>
       </c>
@@ -2073,8 +2169,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="39"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="12" t="s">
         <v>94</v>
       </c>
@@ -2091,8 +2187,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -2111,7 +2207,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="39"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
@@ -2129,10 +2225,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2149,8 +2245,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2165,7 +2261,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="33"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="14" t="s">
         <v>87</v>
       </c>
@@ -2183,10 +2279,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2205,8 +2301,8 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="26" t="s">
         <v>6</v>
       </c>
@@ -2221,8 +2317,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="26" t="s">
         <v>7</v>
       </c>
@@ -2237,9 +2333,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="30" t="s">
@@ -2255,9 +2351,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="30" t="s">
         <v>98</v>
       </c>
@@ -2271,9 +2367,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="30" t="s">
         <v>100</v>
       </c>
@@ -2287,8 +2383,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2305,8 +2401,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2321,8 +2417,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2341,8 +2437,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2357,8 +2453,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="26" t="s">
         <v>16</v>
       </c>
@@ -2373,8 +2469,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
@@ -2391,8 +2487,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="5" t="s">
         <v>92</v>
       </c>
@@ -2409,7 +2505,7 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
@@ -2423,8 +2519,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2439,8 +2535,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="6" t="s">
         <v>128</v>
       </c>
@@ -2453,8 +2549,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="6" t="s">
         <v>132</v>
       </c>
@@ -2467,142 +2563,168 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="45" t="s">
+      <c r="D38" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="33" t="s">
         <v>133</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="46"/>
+      <c r="D39" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="34"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="46"/>
+      <c r="D40" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="34"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="46"/>
+      <c r="D41" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="34"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="46"/>
+      <c r="D42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="34"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="46"/>
+      <c r="D43" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="34"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="46"/>
+      <c r="D44" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="34"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="46"/>
+      <c r="D45" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="34"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="46"/>
+      <c r="D46" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="34"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="46"/>
+      <c r="D47" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="34"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="44"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="46"/>
+      <c r="D48" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="34"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="46"/>
+      <c r="D49" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="34"/>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="47"/>
+      <c r="D50" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="35"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="44" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2615,8 +2737,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="48"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="6" t="s">
         <v>55</v>
       </c>
@@ -2627,8 +2749,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="44" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2643,8 +2765,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="48"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="6" t="s">
         <v>66</v>
       </c>
@@ -2657,8 +2779,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="6" t="s">
         <v>84</v>
       </c>
@@ -2669,8 +2791,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="48"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
@@ -2689,7 +2811,7 @@
       </c>
       <c r="D58" s="18">
         <f>COUNTA(D5:D56)/(COUNTA(C5:C56))</f>
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2714,6 +2836,16 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E38:E50"/>
     <mergeCell ref="A21:A56"/>
@@ -2725,16 +2857,6 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2746,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2834,8 +2956,12 @@
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:4">

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t>기능 설명</t>
   </si>
@@ -1309,6 +1309,165 @@
         <charset val="129"/>
       </rPr>
       <t>해결</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가판대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찜한상품</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전제선택해제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1590,6 +1749,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1605,15 +1803,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1621,36 +1810,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1873,8 +2032,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1889,11 +2048,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -1947,22 +2106,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1971,22 +2130,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2005,8 +2164,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
         <v>125</v>
       </c>
@@ -2023,8 +2182,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
@@ -2043,8 +2202,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2063,8 +2222,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -2081,8 +2240,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -2099,8 +2258,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="52"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="12" t="s">
         <v>105</v>
       </c>
@@ -2117,8 +2276,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="52"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="12" t="s">
         <v>106</v>
       </c>
@@ -2135,8 +2294,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="52"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="12" t="s">
         <v>102</v>
       </c>
@@ -2153,8 +2312,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="52"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="12" t="s">
         <v>93</v>
       </c>
@@ -2169,8 +2328,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="52"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="12" t="s">
         <v>94</v>
       </c>
@@ -2187,8 +2346,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -2207,7 +2366,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="52"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
@@ -2225,10 +2384,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2245,8 +2404,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2261,7 +2420,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="38"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>87</v>
       </c>
@@ -2279,10 +2438,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2301,8 +2460,8 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="26" t="s">
         <v>6</v>
       </c>
@@ -2317,8 +2476,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="26" t="s">
         <v>7</v>
       </c>
@@ -2333,9 +2492,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="30" t="s">
@@ -2351,9 +2510,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="30" t="s">
         <v>98</v>
       </c>
@@ -2367,9 +2526,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="30" t="s">
         <v>100</v>
       </c>
@@ -2383,8 +2542,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2401,8 +2560,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2417,8 +2576,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2437,8 +2596,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2453,8 +2612,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="26" t="s">
         <v>16</v>
       </c>
@@ -2469,8 +2628,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
@@ -2487,8 +2646,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="5" t="s">
         <v>92</v>
       </c>
@@ -2505,7 +2664,7 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
@@ -2519,8 +2678,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="36"/>
-      <c r="B35" s="40" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2535,8 +2694,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="6" t="s">
         <v>128</v>
       </c>
@@ -2549,8 +2708,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="6" t="s">
         <v>132</v>
       </c>
@@ -2563,8 +2722,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="29" t="s">
@@ -2573,158 +2732,158 @@
       <c r="D38" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="46" t="s">
         <v>133</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="34"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="34"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="34"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="34"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="34"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="34"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="34"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="34"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="36"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="34"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="36"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="34"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="34"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="35"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="32" t="s">
+      <c r="A51" s="49"/>
+      <c r="B51" s="45" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2737,8 +2896,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="36"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="6" t="s">
         <v>55</v>
       </c>
@@ -2749,8 +2908,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="32" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="45" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2765,8 +2924,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="6" t="s">
         <v>66</v>
       </c>
@@ -2779,8 +2938,8 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="6" t="s">
         <v>84</v>
       </c>
@@ -2791,8 +2950,8 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
@@ -2836,16 +2995,6 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E38:E50"/>
     <mergeCell ref="A21:A56"/>
@@ -2857,6 +3006,16 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2869,7 +3028,7 @@
   <dimension ref="B2:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2965,8 +3124,12 @@
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:4">

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -1654,7 +1654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1749,14 +1749,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,42 +1813,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2032,8 +2035,8 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2048,11 +2051,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -2106,22 +2109,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2130,22 +2133,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2164,8 +2167,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="12" t="s">
         <v>125</v>
       </c>
@@ -2182,8 +2185,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
@@ -2202,8 +2205,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2222,8 +2225,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
@@ -2240,8 +2243,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -2258,8 +2261,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="40"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="12" t="s">
         <v>105</v>
       </c>
@@ -2276,8 +2279,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="40"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="12" t="s">
         <v>106</v>
       </c>
@@ -2294,8 +2297,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="40"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="12" t="s">
         <v>102</v>
       </c>
@@ -2312,8 +2315,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="40"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="12" t="s">
         <v>93</v>
       </c>
@@ -2328,8 +2331,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="40"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="12" t="s">
         <v>94</v>
       </c>
@@ -2346,8 +2349,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
@@ -2366,7 +2369,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="40"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
@@ -2384,10 +2387,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2404,8 +2407,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2420,7 +2423,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="34"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="14" t="s">
         <v>87</v>
       </c>
@@ -2438,10 +2441,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2460,8 +2463,8 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="26" t="s">
         <v>6</v>
       </c>
@@ -2476,8 +2479,8 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="26" t="s">
         <v>7</v>
       </c>
@@ -2492,9 +2495,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="30" t="s">
@@ -2510,9 +2513,9 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="30" t="s">
         <v>98</v>
       </c>
@@ -2526,9 +2529,9 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="30" t="s">
         <v>100</v>
       </c>
@@ -2542,8 +2545,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2560,8 +2563,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2576,8 +2579,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2596,8 +2599,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2612,8 +2615,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="26" t="s">
         <v>16</v>
       </c>
@@ -2628,8 +2631,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
@@ -2646,8 +2649,8 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="5" t="s">
         <v>92</v>
       </c>
@@ -2664,7 +2667,7 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="49"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
@@ -2678,8 +2681,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2694,8 +2697,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="6" t="s">
         <v>128</v>
       </c>
@@ -2708,8 +2711,8 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="6" t="s">
         <v>132</v>
       </c>
@@ -2722,8 +2725,8 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="49"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="29" t="s">
@@ -2732,158 +2735,158 @@
       <c r="D38" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="34" t="s">
         <v>133</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="49"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="47"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="47"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="49"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="47"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="49"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="47"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="47"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="47"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="47"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="47"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="49"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="47"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="47"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="47"/>
+      <c r="E49" s="35"/>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="48"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="33" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2896,8 +2899,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="49"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="6" t="s">
         <v>55</v>
       </c>
@@ -2908,8 +2911,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="45" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2924,8 +2927,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="6" t="s">
         <v>66</v>
       </c>
@@ -2938,26 +2941,26 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="49"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="29"/>
+      <c r="D55" s="32" t="s">
+        <v>99</v>
+      </c>
       <c r="E55" s="9" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>99</v>
-      </c>
+      <c r="D56" s="29"/>
       <c r="E56" s="9" t="s">
         <v>82</v>
       </c>
@@ -2995,6 +2998,16 @@
     <row r="78" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="E38:E50"/>
     <mergeCell ref="A21:A56"/>
@@ -3006,16 +3019,6 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
   <si>
     <t>기능 설명</t>
   </si>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카카오톡 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,15 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카카오톡을 통한 회원가입 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항 분석 명세서(중고거래 사이트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버를 통한 회원가입 진행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1654,7 +1638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1752,6 +1736,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1767,15 +1793,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1783,36 +1800,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2033,10 +2020,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2051,11 +2038,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -2109,22 +2096,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="A3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2133,32 +2120,32 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="13"/>
@@ -2167,16 +2154,16 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="13"/>
@@ -2185,19 +2172,19 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -2205,18 +2192,18 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="38" t="s">
-        <v>17</v>
+      <c r="A8" s="42"/>
+      <c r="B8" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="13"/>
@@ -2225,16 +2212,16 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="13"/>
@@ -2243,16 +2230,16 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="13"/>
@@ -2261,16 +2248,16 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="53"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="13"/>
@@ -2279,16 +2266,16 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="53"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="13"/>
@@ -2297,16 +2284,16 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="53"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="13"/>
@@ -2315,14 +2302,14 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="53"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="13"/>
@@ -2331,16 +2318,16 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="53"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
@@ -2349,19 +2336,19 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -2369,16 +2356,16 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="53"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="13"/>
@@ -2387,18 +2374,18 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>47</v>
+      <c r="B18" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="13"/>
@@ -2407,14 +2394,14 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="40"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="13"/>
@@ -2423,16 +2410,16 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="39"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="13"/>
@@ -2441,20 +2428,20 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="13"/>
@@ -2462,15 +2449,17 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="30"/>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="E22" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="13"/>
@@ -2478,15 +2467,15 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="30"/>
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="24">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="E23" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="13"/>
@@ -2495,16 +2484,14 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="13"/>
@@ -2512,31 +2499,33 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="30" t="s">
-        <v>98</v>
-      </c>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="30"/>
       <c r="E25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="30" t="s">
-        <v>100</v>
-      </c>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="30"/>
       <c r="E26" s="8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="13"/>
@@ -2545,32 +2534,34 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="30"/>
+        <v>67</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="E27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="5" t="s">
-        <v>31</v>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="13"/>
@@ -2578,19 +2569,15 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>98</v>
-      </c>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="30"/>
       <c r="E29" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="13"/>
@@ -2599,14 +2586,16 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="30"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="E30" s="8" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="13"/>
@@ -2615,14 +2604,16 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="30"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="E31" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="13"/>
@@ -2631,351 +2622,317 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" s="11" customFormat="1" ht="12">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A35" s="37"/>
-      <c r="B35" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="10" t="s">
+    <row r="36" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="48" t="s">
         <v>129</v>
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>130</v>
-      </c>
+    <row r="37" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="49"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33" t="s">
+    <row r="38" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="49"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="49"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="49"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A41" s="51"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="D41" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A42" s="51"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A43" s="51"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="49"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A44" s="51"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A45" s="51"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="29" t="s">
-        <v>42</v>
-      </c>
       <c r="D45" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E45" s="49"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="37"/>
-      <c r="B46" s="33"/>
+    <row r="46" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A46" s="51"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E46" s="49"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="37"/>
-      <c r="B47" s="33"/>
+    <row r="47" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A47" s="51"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="29" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="37"/>
-      <c r="B48" s="33"/>
+        <v>94</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A48" s="51"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E48" s="50"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="37"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="36"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" s="11" customFormat="1" ht="36">
+      <c r="A50" s="51"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="37"/>
-      <c r="B51" s="33" t="s">
-        <v>59</v>
+      <c r="A51" s="51"/>
+      <c r="B51" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="E51" s="9" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A52" s="37"/>
-      <c r="B52" s="33"/>
+    <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A52" s="51"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>118</v>
+      </c>
       <c r="E52" s="9" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="33" t="s">
-        <v>101</v>
-      </c>
+      <c r="A53" s="51"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>122</v>
+        <v>80</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="37"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>122</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D54" s="29"/>
       <c r="E54" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A55" s="37"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A56" s="37"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
-    <row r="58" spans="1:6" ht="14.1" customHeight="1">
-      <c r="C58" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="18">
-        <f>COUNTA(D5:D56)/(COUNTA(C5:C56))</f>
-        <v>0.74</v>
-      </c>
-    </row>
+    <row r="55" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1"/>
+    <row r="56" spans="1:6" ht="14.1" customHeight="1">
+      <c r="C56" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="18">
+        <f>COUNTA(D5:D54)/(COUNTA(C5:C54))</f>
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.1" customHeight="1"/>
+    <row r="58" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="59" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="60" spans="1:6" ht="14.1" customHeight="1"/>
     <row r="61" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2992,33 +2949,31 @@
     <row r="72" ht="14.1" customHeight="1"/>
     <row r="73" ht="14.1" customHeight="1"/>
     <row r="74" ht="14.1" customHeight="1"/>
-    <row r="75" ht="14.1" customHeight="1"/>
-    <row r="76" ht="14.1" customHeight="1"/>
-    <row r="77" ht="12.95" customHeight="1"/>
-    <row r="78" ht="12.95" customHeight="1"/>
+    <row r="75" ht="12.95" customHeight="1"/>
+    <row r="76" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="E36:E48"/>
+    <mergeCell ref="A21:A54"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B36:B48"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A5:A17"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="E38:E50"/>
-    <mergeCell ref="A21:A56"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B38:B50"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3045,93 +3000,93 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="2:4" ht="12" customHeight="1">
       <c r="B7" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D7" s="23"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D11" s="23"/>
     </row>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석 명세서" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
   <si>
     <t>기능 설명</t>
   </si>
@@ -549,6 +549,955 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>권한설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지별로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한설정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연락하기버튼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가판대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탭에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시하기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 정보를 표시(가판대명, 가판대 소개글, 가판대 이미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분하기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품상세페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찜한상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜한상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디를 찾는기능(이름, 이메일 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 찾는기능(아이디, 이름, 이메일을 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 및 알림 배너 밑에 위치하며, 등록일 기준으로 최신순으로 상품을 표시한다.(최대 32개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규상품 밑에 위치하며, 관심이 많은 상품순으로 표시한다.(최대 32개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심수가 높은 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품을 카테고리 구분으로 화면에 표시, 필터적용기능(최신순, 가격이 낮은순, 가격이 높은순)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가판대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지수정버튼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가판대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해결</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가판대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찜한상품</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전제선택해제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품클릭시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -578,880 +1527,43 @@
       </rPr>
       <t>설정하기</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지별로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>권한설정</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연락하기버튼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클릭시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>채팅창</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실행</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가판대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탭에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>표시하기</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 정보를 표시(가판대명, 가판대 소개글, 가판대 이미지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>별로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구분하기</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품상세페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찜한상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찜한상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디를 찾는기능(이름, 이메일 이용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호를 찾는기능(아이디, 이름, 이메일을 이용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 및 알림 배너 밑에 위치하며, 등록일 기준으로 최신순으로 상품을 표시한다.(최대 32개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규상품 밑에 위치하며, 관심이 많은 상품순으로 표시한다.(최대 32개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심수가 높은 상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품을 카테고리 구분으로 화면에 표시, 필터적용기능(최신순, 가격이 낮은순, 가격이 높은순)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가판대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지수정버튼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저장이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>되나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가판대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제대로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>못함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오류창</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해결</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가판대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찜한상품</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택되어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있으면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전제선택해제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - StandVo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1739,14 +1851,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1764,42 +1912,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2022,8 +2134,8 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2038,11 +2150,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -2096,22 +2208,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2120,22 +2232,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2154,10 +2266,10 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>95</v>
@@ -2172,8 +2284,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
@@ -2192,8 +2304,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2212,8 +2324,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
@@ -2230,8 +2342,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
@@ -2248,8 +2360,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="42"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2266,8 +2378,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="42"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="12" t="s">
         <v>102</v>
       </c>
@@ -2284,8 +2396,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="42"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="12" t="s">
         <v>98</v>
       </c>
@@ -2302,8 +2414,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="42"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="12" t="s">
         <v>89</v>
       </c>
@@ -2318,8 +2430,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="42"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
@@ -2336,8 +2448,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
@@ -2356,7 +2468,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="42"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="14" t="s">
         <v>47</v>
       </c>
@@ -2374,10 +2486,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2394,8 +2506,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
@@ -2410,7 +2522,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="36"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>83</v>
       </c>
@@ -2428,10 +2540,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2450,9 +2562,9 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -2468,9 +2580,9 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="30" t="s">
         <v>94</v>
       </c>
@@ -2484,9 +2596,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="30" t="s">
         <v>96</v>
       </c>
@@ -2500,8 +2612,8 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2518,8 +2630,8 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2534,8 +2646,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2554,12 +2666,14 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="E28" s="8" t="s">
         <v>69</v>
       </c>
@@ -2570,8 +2684,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="26" t="s">
         <v>12</v>
       </c>
@@ -2586,8 +2700,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
@@ -2595,7 +2709,7 @@
         <v>94</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="13"/>
@@ -2604,8 +2718,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="5" t="s">
         <v>88</v>
       </c>
@@ -2613,7 +2727,7 @@
         <v>94</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="13"/>
@@ -2622,22 +2736,24 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="51"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="E32" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" s="11" customFormat="1" ht="12">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="42" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2652,36 +2768,36 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="51"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>94</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -2690,158 +2806,158 @@
       <c r="D36" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="48" t="s">
-        <v>129</v>
+      <c r="E36" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="51"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="49"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="51"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="49"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="51"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="49"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="49"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="51"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="49"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="51"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="49"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="49"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="49"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="49"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="49"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="49"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="51"/>
-      <c r="B48" s="47"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="50"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="47" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2854,8 +2970,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A50" s="51"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
@@ -2866,29 +2982,29 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="51"/>
-      <c r="B51" s="47" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="51"/>
-      <c r="B52" s="47"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>63</v>
@@ -2896,8 +3012,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="47"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
@@ -2910,8 +3026,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="51"/>
-      <c r="B54" s="47"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="6" t="s">
         <v>53</v>
       </c>
@@ -2928,7 +3044,7 @@
       </c>
       <c r="D56" s="18">
         <f>COUNTA(D5:D54)/(COUNTA(C5:C54))</f>
-        <v>0.77083333333333337</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.1" customHeight="1"/>
@@ -2953,6 +3069,16 @@
     <row r="76" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="E36:E48"/>
     <mergeCell ref="A21:A54"/>
@@ -2964,16 +3090,6 @@
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B33:B35"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2985,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3023,76 +3139,80 @@
         <v>109</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="2:4" ht="12" customHeight="1">
       <c r="B7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="D7" s="23"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>133</v>
       </c>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" s="23"/>
     </row>
     <row r="13" spans="2:4">

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석 명세서" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
   <si>
     <t>기능 설명</t>
   </si>
@@ -1750,7 +1750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1846,6 +1846,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2134,8 +2137,8 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2150,11 +2153,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -2208,22 +2211,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2232,22 +2235,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2266,8 +2269,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
         <v>120</v>
       </c>
@@ -2284,8 +2287,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
@@ -2304,8 +2307,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2324,8 +2327,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
@@ -2342,8 +2345,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
@@ -2360,8 +2363,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="54"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2378,8 +2381,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="54"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="12" t="s">
         <v>102</v>
       </c>
@@ -2396,8 +2399,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="12" t="s">
         <v>98</v>
       </c>
@@ -2414,8 +2417,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="54"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="12" t="s">
         <v>89</v>
       </c>
@@ -2430,8 +2433,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="54"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
@@ -2448,8 +2451,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
@@ -2468,7 +2471,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="14" t="s">
         <v>47</v>
       </c>
@@ -2486,10 +2489,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2506,8 +2509,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="41"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
@@ -2522,7 +2525,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="40"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="14" t="s">
         <v>83</v>
       </c>
@@ -2540,10 +2543,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2562,9 +2565,9 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -2580,9 +2583,9 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="30" t="s">
         <v>94</v>
       </c>
@@ -2596,9 +2599,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="30" t="s">
         <v>96</v>
       </c>
@@ -2612,8 +2615,8 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2630,12 +2633,14 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="E26" s="8" t="s">
         <v>76</v>
       </c>
@@ -2646,8 +2651,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2666,8 +2671,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
@@ -2684,12 +2689,14 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="E29" s="8" t="s">
         <v>70</v>
       </c>
@@ -2700,8 +2707,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
@@ -2718,8 +2725,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5" t="s">
         <v>88</v>
       </c>
@@ -2736,7 +2743,7 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
@@ -2752,8 +2759,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" s="11" customFormat="1" ht="12">
-      <c r="A33" s="38"/>
-      <c r="B33" s="42" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="43" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2768,8 +2775,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="6" t="s">
         <v>123</v>
       </c>
@@ -2782,8 +2789,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="6" t="s">
         <v>127</v>
       </c>
@@ -2796,8 +2803,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="34" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -2806,158 +2813,158 @@
       <c r="D36" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="36"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="38"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="34"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="38"/>
-      <c r="B41" s="34"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="36"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="34"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="36"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="38"/>
-      <c r="B43" s="34"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="36"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" s="34"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="36"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="34"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="36"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="34"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="36"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="34"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="36"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="34"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="37"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="38"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2970,8 +2977,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A50" s="38"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
@@ -2982,8 +2989,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="38"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="35" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2998,8 +3005,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="38"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="6" t="s">
         <v>62</v>
       </c>
@@ -3012,8 +3019,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="38"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
@@ -3026,8 +3033,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="38"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="6" t="s">
         <v>53</v>
       </c>
@@ -3044,7 +3051,7 @@
       </c>
       <c r="D56" s="18">
         <f>COUNTA(D5:D54)/(COUNTA(C5:C54))</f>
-        <v>0.8125</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.1" customHeight="1"/>
@@ -3101,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -1854,6 +1854,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1869,15 +1908,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1885,36 +1915,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2137,8 +2137,8 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2153,11 +2153,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -2211,22 +2211,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2235,22 +2235,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="47"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2269,8 +2269,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="12" t="s">
         <v>120</v>
       </c>
@@ -2287,8 +2287,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2327,8 +2327,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
@@ -2345,8 +2345,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
@@ -2363,8 +2363,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="55"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2381,8 +2381,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="55"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="12" t="s">
         <v>102</v>
       </c>
@@ -2399,8 +2399,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="55"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="12" t="s">
         <v>98</v>
       </c>
@@ -2417,8 +2417,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="55"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="12" t="s">
         <v>89</v>
       </c>
@@ -2433,8 +2433,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="55"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
@@ -2451,8 +2451,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="55"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="14" t="s">
         <v>47</v>
       </c>
@@ -2489,10 +2489,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2509,8 +2509,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="42"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="41"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="14" t="s">
         <v>83</v>
       </c>
@@ -2543,10 +2543,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2565,9 +2565,9 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -2583,9 +2583,9 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="30" t="s">
         <v>94</v>
       </c>
@@ -2599,9 +2599,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="30" t="s">
         <v>96</v>
       </c>
@@ -2615,8 +2615,8 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2633,8 +2633,8 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2651,8 +2651,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2671,8 +2671,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
@@ -2689,8 +2689,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="26" t="s">
         <v>12</v>
       </c>
@@ -2707,8 +2707,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="5" t="s">
         <v>88</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
@@ -2759,8 +2759,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" s="11" customFormat="1" ht="12">
-      <c r="A33" s="39"/>
-      <c r="B33" s="43" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="53" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2775,8 +2775,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="6" t="s">
         <v>123</v>
       </c>
@@ -2789,8 +2789,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="6" t="s">
         <v>127</v>
       </c>
@@ -2803,8 +2803,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -2813,158 +2813,158 @@
       <c r="D36" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="49" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="37"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="37"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="37"/>
+      <c r="E39" s="50"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="37"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="37"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="37"/>
+      <c r="E42" s="50"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="37"/>
+      <c r="E43" s="50"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="37"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="37"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="37"/>
+      <c r="E46" s="50"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="35"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="37"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="38"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="48" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2977,8 +2977,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A50" s="39"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
@@ -2989,8 +2989,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="35" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3005,8 +3005,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="39"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="6" t="s">
         <v>62</v>
       </c>
@@ -3019,8 +3019,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="35"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
@@ -3033,8 +3033,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="6" t="s">
         <v>53</v>
       </c>
@@ -3076,16 +3076,6 @@
     <row r="76" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="E36:E48"/>
     <mergeCell ref="A21:A54"/>
@@ -3097,6 +3087,16 @@
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B33:B35"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -1854,14 +1854,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1879,42 +1915,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2153,11 +2153,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -2211,22 +2211,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2235,22 +2235,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2269,8 +2269,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
         <v>120</v>
       </c>
@@ -2287,8 +2287,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2327,8 +2327,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
@@ -2345,8 +2345,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
@@ -2363,8 +2363,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2381,8 +2381,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="43"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="12" t="s">
         <v>102</v>
       </c>
@@ -2399,8 +2399,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="43"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="12" t="s">
         <v>98</v>
       </c>
@@ -2417,8 +2417,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="43"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="12" t="s">
         <v>89</v>
       </c>
@@ -2433,8 +2433,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="43"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
@@ -2451,8 +2451,8 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="43"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="14" t="s">
         <v>47</v>
       </c>
@@ -2489,10 +2489,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2509,8 +2509,8 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A20" s="37"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="14" t="s">
         <v>83</v>
       </c>
@@ -2543,10 +2543,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2565,9 +2565,9 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -2583,9 +2583,9 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="30" t="s">
         <v>94</v>
       </c>
@@ -2599,9 +2599,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="30" t="s">
         <v>96</v>
       </c>
@@ -2615,8 +2615,8 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2633,8 +2633,8 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2651,8 +2651,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2671,8 +2671,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
@@ -2689,8 +2689,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="26" t="s">
         <v>12</v>
       </c>
@@ -2707,8 +2707,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5" t="s">
         <v>88</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
@@ -2759,8 +2759,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" s="11" customFormat="1" ht="12">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="43" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2775,8 +2775,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="6" t="s">
         <v>123</v>
       </c>
@@ -2789,8 +2789,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="6" t="s">
         <v>127</v>
       </c>
@@ -2803,8 +2803,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -2813,158 +2813,158 @@
       <c r="D36" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="36" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="50"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="50"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="50"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="50"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="52"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="50"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="50"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="50"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="50"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="50"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="50"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="48" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2977,8 +2977,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A50" s="52"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
@@ -2989,8 +2989,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="48" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="35" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3005,8 +3005,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="48"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="6" t="s">
         <v>62</v>
       </c>
@@ -3019,8 +3019,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="48"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
@@ -3033,8 +3033,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="52"/>
-      <c r="B54" s="48"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="6" t="s">
         <v>53</v>
       </c>
@@ -3076,6 +3076,16 @@
     <row r="76" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="E36:E48"/>
     <mergeCell ref="A21:A54"/>
@@ -3087,16 +3097,6 @@
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B33:B35"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항분석_명세서_이래웅.xlsx
+++ b/요구사항분석_명세서_이래웅.xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항분석 명세서" sheetId="1" r:id="rId1"/>
-    <sheet name="나중에 해야 할 기능 및 수정사항" sheetId="2" r:id="rId2"/>
+    <sheet name="요구사항분석 명세서 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="나중에 해야 할 기능 및 수정사항" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'요구사항분석 명세서 (2)'!$A$1:$Y$53</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="141">
   <si>
     <t>기능 설명</t>
   </si>
@@ -1565,6 +1569,18 @@
       </rPr>
       <t>작업</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매할 상품을 등록하는 기능으로, 제목, 상품 사진, 분류, 상품설명, 가격, 거래방법(택배, 직거래), 거래지역 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴하는 기능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜한상품의 목록을 표시하는 기능.(가판대의 찜한목록으로 이동)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1750,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1860,6 +1876,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1869,15 +1936,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1887,34 +1945,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2137,8 +2174,8 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2153,11 +2190,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="16"/>
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
@@ -2211,22 +2248,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="48" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2235,22 +2272,22 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2269,8 +2306,8 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="12" t="s">
         <v>120</v>
       </c>
@@ -2287,7 +2324,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="55"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="41"/>
       <c r="C7" s="12" t="s">
         <v>44</v>
@@ -2307,8 +2344,8 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2327,8 +2364,8 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
@@ -2345,8 +2382,8 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
@@ -2363,8 +2400,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A11" s="55"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2381,8 +2418,8 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A12" s="55"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="12" t="s">
         <v>102</v>
       </c>
@@ -2399,8 +2436,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A13" s="55"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="12" t="s">
         <v>98</v>
       </c>
@@ -2417,8 +2454,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A14" s="55"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="12" t="s">
         <v>89</v>
       </c>
@@ -2433,8 +2470,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="12">
-      <c r="A15" s="55"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
@@ -2451,7 +2488,7 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:26" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="41"/>
       <c r="C16" s="12" t="s">
         <v>20</v>
@@ -2471,14 +2508,16 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A17" s="55"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>60</v>
       </c>
@@ -2489,10 +2528,10 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2509,7 +2548,7 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="36">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="41"/>
       <c r="C19" s="5" t="s">
         <v>50</v>
@@ -2543,10 +2582,10 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2565,9 +2604,9 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -2583,9 +2622,9 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="24">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="30" t="s">
         <v>94</v>
       </c>
@@ -2599,9 +2638,9 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="30" t="s">
         <v>96</v>
       </c>
@@ -2615,8 +2654,8 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2633,8 +2672,8 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2651,8 +2690,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="12">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2671,8 +2710,8 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="26" t="s">
         <v>11</v>
       </c>
@@ -2689,8 +2728,8 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="26" t="s">
         <v>12</v>
       </c>
@@ -2707,8 +2746,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
@@ -2725,8 +2764,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="5" t="s">
         <v>88</v>
       </c>
@@ -2743,7 +2782,7 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
@@ -2759,8 +2798,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" s="11" customFormat="1" ht="12">
-      <c r="A33" s="39"/>
-      <c r="B33" s="43" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="57" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2775,8 +2814,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="6" t="s">
         <v>123</v>
       </c>
@@ -2789,8 +2828,8 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="6" t="s">
         <v>127</v>
       </c>
@@ -2803,8 +2842,8 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -2813,158 +2852,158 @@
       <c r="D36" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="53" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="37"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="37"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="37"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="37"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="37"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="37"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="37"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="37"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="37"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="37"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="35"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="37"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="38"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="56"/>
+      <c r="B49" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2977,8 +3016,8 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="36">
-      <c r="A50" s="39"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
@@ -2989,8 +3028,8 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="35" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="52" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3005,8 +3044,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A52" s="39"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="6" t="s">
         <v>62</v>
       </c>
@@ -3019,8 +3058,8 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="35"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
@@ -3033,8 +3072,8 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="6" t="s">
         <v>53</v>
       </c>
@@ -3051,7 +3090,7 @@
       </c>
       <c r="D56" s="18">
         <f>COUNTA(D5:D54)/(COUNTA(C5:C54))</f>
-        <v>0.85416666666666663</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.1" customHeight="1"/>
@@ -3076,16 +3115,6 @@
     <row r="76" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="E36:E48"/>
     <mergeCell ref="A21:A54"/>
@@ -3097,6 +3126,16 @@
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B33:B35"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3105,6 +3144,683 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B1:Y69"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="14.42578125" style="3"/>
+    <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="113.140625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="14.25">
+      <c r="B1" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="2:25" ht="12">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="2:25" ht="12">
+      <c r="B3" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="2:25" ht="12">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:25" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:25" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B6" s="47"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:25" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B7" s="47"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:25" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B8" s="47"/>
+      <c r="C8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:25" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B9" s="47"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:25" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B10" s="47"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:25" s="11" customFormat="1" ht="12">
+      <c r="B11" s="47"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:25" s="11" customFormat="1" ht="12">
+      <c r="B12" s="47"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:25" s="11" customFormat="1" ht="12">
+      <c r="B13" s="47"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:25" s="11" customFormat="1" ht="12">
+      <c r="B14" s="47"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:25" s="11" customFormat="1" ht="12">
+      <c r="B15" s="47"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:9" s="11" customFormat="1" ht="12">
+      <c r="B17" s="47"/>
+      <c r="C17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:9" s="11" customFormat="1" ht="12">
+      <c r="B18" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" s="11" customFormat="1" ht="12">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="2:9" s="11" customFormat="1" ht="24">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="2:9" s="11" customFormat="1" ht="12">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="2:9" s="11" customFormat="1" ht="12">
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="2:9" s="11" customFormat="1" ht="12">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="2:9" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="2:9" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="2:9" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="2:9" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="2:9" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B28" s="56"/>
+      <c r="C28" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" s="11" customFormat="1" ht="12">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B30" s="56"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B31" s="56"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B32" s="56"/>
+      <c r="C32" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B33" s="56"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B34" s="56"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B35" s="56"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B36" s="56"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B37" s="56"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B38" s="56"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B39" s="56"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="40" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B40" s="56"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="54"/>
+    </row>
+    <row r="41" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B41" s="56"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B42" s="56"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="54"/>
+    </row>
+    <row r="43" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B43" s="56"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="54"/>
+    </row>
+    <row r="44" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B44" s="56"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="55"/>
+    </row>
+    <row r="45" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B45" s="56"/>
+      <c r="C45" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B46" s="56"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B47" s="56"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" s="11" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B48" s="56"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" ht="14.1" customHeight="1"/>
+    <row r="50" ht="14.1" customHeight="1"/>
+    <row r="51" ht="14.1" customHeight="1"/>
+    <row r="52" ht="14.1" customHeight="1"/>
+    <row r="53" ht="14.1" customHeight="1"/>
+    <row r="54" ht="14.1" customHeight="1"/>
+    <row r="55" ht="14.1" customHeight="1"/>
+    <row r="56" ht="14.1" customHeight="1"/>
+    <row r="57" ht="14.1" customHeight="1"/>
+    <row r="58" ht="14.1" customHeight="1"/>
+    <row r="59" ht="14.1" customHeight="1"/>
+    <row r="60" ht="14.1" customHeight="1"/>
+    <row r="61" ht="14.1" customHeight="1"/>
+    <row r="62" ht="14.1" customHeight="1"/>
+    <row r="63" ht="14.1" customHeight="1"/>
+    <row r="64" ht="14.1" customHeight="1"/>
+    <row r="65" ht="14.1" customHeight="1"/>
+    <row r="66" ht="14.1" customHeight="1"/>
+    <row r="67" ht="14.1" customHeight="1"/>
+    <row r="68" ht="12.95" customHeight="1"/>
+    <row r="69" ht="12.95" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B18:B48"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C44"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="52" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D44"/>
   <sheetViews>
